--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -21,31 +21,31 @@
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">К оплате </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
     <t>Показания на день оплаты</t>
   </si>
   <si>
-    <t xml:space="preserve">доплатить </t>
-  </si>
-  <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -53,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,12 +74,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -120,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -133,7 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -142,15 +136,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,45 +444,50 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -512,6 +503,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -534,6 +527,12 @@
         <f>D3*E3</f>
         <v>429</v>
       </c>
+      <c r="G3" s="9">
+        <v>429</v>
+      </c>
+      <c r="H3" s="9">
+        <v>429</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -556,6 +555,12 @@
         <f>D4*E4</f>
         <v>858</v>
       </c>
+      <c r="G4" s="9">
+        <v>858</v>
+      </c>
+      <c r="H4" s="9">
+        <v>858</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -578,6 +583,12 @@
         <f>D5*E5</f>
         <v>429</v>
       </c>
+      <c r="G5" s="9">
+        <v>429</v>
+      </c>
+      <c r="H5" s="9">
+        <v>429</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -600,149 +611,124 @@
         <f>D6*E6</f>
         <v>141.67000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="9">
+        <v>141.66999999999999</v>
+      </c>
+      <c r="H6" s="9">
+        <v>141.66999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43677</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5310</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C6</f>
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>224.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>224.5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>224.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43677</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>43706</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C7</f>
+        <v>90</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
       <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
+        <f>D8*E8</f>
+        <v>404.1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>404.1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>404.1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43677</v>
+        <v>43770</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>5310</v>
+        <v>5500</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C6</f>
-        <v>50</v>
+        <f>C9-C8</f>
+        <v>100</v>
       </c>
       <c r="E9" s="8">
         <v>4.49</v>
       </c>
       <c r="F9" s="6">
         <f>D9*E9</f>
-        <v>224.5</v>
+        <v>449</v>
+      </c>
+      <c r="G9" s="9">
+        <v>449</v>
+      </c>
+      <c r="H9" s="9">
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43706</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5400</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C9</f>
-        <v>90</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>404.1</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G3,G4,G5,G6,G7,G8,G9)</f>
+        <v>2935.27</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H3,H4,H5,H6,H7,H8,H9)</f>
+        <v>2935.27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43770</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C10</f>
-        <v>100</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,14 +517,14 @@
         <v>4929</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-C2</f>
+        <f t="shared" ref="D3:D10" si="0">C3-C2</f>
         <v>100</v>
       </c>
       <c r="E3" s="3">
         <v>4.29</v>
       </c>
       <c r="F3" s="6">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F9" si="1">D3*E3</f>
         <v>429</v>
       </c>
       <c r="G3" s="9">
@@ -545,14 +545,14 @@
         <v>5129</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C3</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E4" s="8">
         <v>4.29</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" si="1"/>
         <v>858</v>
       </c>
       <c r="G4" s="9">
@@ -573,14 +573,14 @@
         <v>5229</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="8">
         <v>4.29</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>429</v>
       </c>
       <c r="G5" s="9">
@@ -601,14 +601,14 @@
         <v>5260</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C5</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E6" s="8">
         <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>141.67000000000002</v>
       </c>
       <c r="G6" s="9">
@@ -629,14 +629,14 @@
         <v>5310</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C6</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E7" s="8">
         <v>4.49</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>224.5</v>
       </c>
       <c r="G7" s="9">
@@ -657,14 +657,14 @@
         <v>5400</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C7</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>404.1</v>
       </c>
       <c r="G8" s="9">
@@ -685,14 +685,14 @@
         <v>5500</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C8</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E9" s="8">
         <v>4.49</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="G9" s="9">
@@ -703,21 +703,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
+      <c r="A10" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10" si="2">D10*E10</f>
+        <v>898</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G3,G4,G5,G6,G7,G8,G9)</f>
-        <v>2935.27</v>
+        <v>898</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H3,H4,H5,H6,H7,H8,H9)</f>
-        <v>2935.27</v>
+        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,9 +736,27 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(G3,G4,G5,G6,G7,G8,G9,G10)</f>
+        <v>3833.27</v>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM(H3,H4,H5,H6,H7,H8,H9,H10)</f>
+        <v>3833.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -731,21 +731,31 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
+      <c r="A11" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5900</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11" si="3">C11-C10</f>
+        <v>200</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11" si="4">D11*E11</f>
+        <v>898</v>
       </c>
       <c r="G11" s="9">
-        <f>SUM(G3,G4,G5,G6,G7,G8,G9,G10)</f>
-        <v>3833.27</v>
+        <v>898</v>
       </c>
       <c r="H11" s="9">
-        <f>SUM(H3,H4,H5,H6,H7,H8,H9,H10)</f>
-        <v>3833.27</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,9 +764,27 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
+        <v>4731.2700000000004</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(H3,H4,H5,H6,H7,H8,H9,H10,H11)</f>
+        <v>4731.2700000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,21 +759,31 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
+      <c r="A12" s="4">
+        <v>44033</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12" si="5">C12-C11</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12" si="6">D12*E12</f>
+        <v>942</v>
       </c>
       <c r="G12" s="9">
-        <f>SUM(G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
-        <v>4731.2700000000004</v>
+        <v>942</v>
       </c>
       <c r="H12" s="9">
-        <f>SUM(H3,H4,H5,H6,H7,H8,H9,H10,H11)</f>
-        <v>4731.2700000000004</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,9 +792,21 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>новый счет</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -766,47 +772,98 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>6100</v>
+        <v>5960</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12" si="5">C12-C11</f>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ref="F12" si="6">D12*E12</f>
-        <v>942</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="G12" s="9">
-        <v>942</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="H12" s="9">
-        <v>942</v>
+        <v>282.60000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
+      <c r="A13" s="4">
+        <v>44095</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>140</v>
+      </c>
+      <c r="D13" s="3">
+        <v>140</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13" si="7">D13*E13</f>
+        <v>659.4</v>
+      </c>
+      <c r="G13" s="9">
+        <v>659.4</v>
+      </c>
+      <c r="H13" s="9">
+        <v>659.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,26 +844,81 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
+      <c r="A15" s="4">
+        <v>44298</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>300</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C13)</f>
+        <v>160</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:F16" si="8">D15*E15</f>
+        <v>753.6</v>
+      </c>
+      <c r="G15" s="9">
+        <f>SUM(F15,F16)</f>
+        <v>1008.6</v>
+      </c>
+      <c r="H15" s="9">
+        <v>961.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C14)</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -450,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:L17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,26 +899,87 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
+      <c r="A17" s="4">
+        <v>44391</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>600</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C15)</f>
+        <v>300</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:F18" si="9">D17*E17</f>
+        <v>1413</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(F17,F18)</f>
+        <v>1668</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1715.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3">
+        <v>200</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="9"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G19" s="9">
+        <f>SUM(G2:G18)</f>
+        <v>8349.8700000000008</v>
+      </c>
+      <c r="H19" s="9">
+        <f>SUM(H2:H18)</f>
+        <v>8349.8700000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -913,15 +913,15 @@
         <v>300</v>
       </c>
       <c r="E17" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ref="F17:F18" si="9">D17*E17</f>
-        <v>1413</v>
+        <v>1488</v>
       </c>
       <c r="G17" s="9">
         <f>SUM(F17,F18)</f>
-        <v>1668</v>
+        <v>1756</v>
       </c>
       <c r="H17" s="9">
         <v>1715.1</v>
@@ -940,11 +940,11 @@
         <v>100</v>
       </c>
       <c r="E18" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="9"/>
-        <v>254.99999999999997</v>
+        <v>268</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="G19" s="9">
         <f>SUM(G2:G18)</f>
-        <v>8349.8700000000008</v>
+        <v>8437.8700000000008</v>
       </c>
       <c r="H19" s="9">
         <f>SUM(H2:H18)</f>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -85,12 +85,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,7 +129,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -143,6 +148,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -471,515 +479,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>42889</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>44391</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>4829</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43225</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="2">
+        <v>600</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(C2,-C4)</f>
+        <v>300</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>1488</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(F2,F3)</f>
+        <v>1756</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1715.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <f>SUM(C3,-C5)</f>
+        <v>100</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>4929</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D10" si="0">C3-C2</f>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44298</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(C4,-C6)</f>
+        <v>160</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>753.6</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>1008.6</v>
+      </c>
+      <c r="H4" s="8">
+        <v>961.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:F9" si="1">D3*E3</f>
-        <v>429</v>
-      </c>
-      <c r="G3" s="9">
-        <v>429</v>
-      </c>
-      <c r="H3" s="9">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D5" s="2">
+        <f>SUM(C5,-C7)</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>5129</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>858</v>
-      </c>
-      <c r="G4" s="9">
-        <v>858</v>
-      </c>
-      <c r="H4" s="9">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43274</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>5229</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E5" s="8">
-        <v>4.29</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>429</v>
-      </c>
-      <c r="G5" s="9">
-        <v>429</v>
-      </c>
-      <c r="H5" s="9">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43635</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44095</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>5260</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>141.67000000000002</v>
-      </c>
-      <c r="G6" s="9">
-        <v>141.66999999999999</v>
-      </c>
-      <c r="H6" s="9">
-        <v>141.66999999999999</v>
-      </c>
+      <c r="C6" s="2">
+        <v>140</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43677</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>5310</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>224.5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>224.5</v>
-      </c>
-      <c r="H7" s="9">
-        <v>224.5</v>
-      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43706</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5400</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>404.1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>404.1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>404.1</v>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G2:G3)</f>
+        <v>1756</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H2:H3)</f>
+        <v>1715.1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43770</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>449</v>
-      </c>
-      <c r="G9" s="9">
-        <v>449</v>
-      </c>
-      <c r="H9" s="9">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43938</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5700</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10" si="2">D10*E10</f>
-        <v>898</v>
-      </c>
-      <c r="G10" s="9">
-        <v>898</v>
-      </c>
-      <c r="H10" s="9">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43972</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5900</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" ref="D11" si="3">C11-C10</f>
-        <v>200</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" ref="F11" si="4">D11*E11</f>
-        <v>898</v>
-      </c>
-      <c r="G11" s="9">
-        <v>898</v>
-      </c>
-      <c r="H11" s="9">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44033</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5960</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12" si="5">C12-C11</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12" si="6">D12*E12</f>
-        <v>282.60000000000002</v>
-      </c>
-      <c r="G12" s="9">
-        <v>282.60000000000002</v>
-      </c>
-      <c r="H12" s="9">
-        <v>282.60000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44095</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>140</v>
-      </c>
-      <c r="D13" s="3">
-        <v>140</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13" si="7">D13*E13</f>
-        <v>659.4</v>
-      </c>
-      <c r="G13" s="9">
-        <v>659.4</v>
-      </c>
-      <c r="H13" s="9">
-        <v>659.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44298</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>300</v>
-      </c>
-      <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
-        <v>160</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F16" si="8">D15*E15</f>
-        <v>753.6</v>
-      </c>
-      <c r="G15" s="9">
-        <f>SUM(F15,F16)</f>
-        <v>1008.6</v>
-      </c>
-      <c r="H15" s="9">
-        <v>961.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
-        <v>100</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="8"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>44391</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>600</v>
-      </c>
-      <c r="D17" s="3">
-        <f>SUM(C17,-C15)</f>
-        <v>300</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4.96</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" ref="F17:F18" si="9">D17*E17</f>
-        <v>1488</v>
-      </c>
-      <c r="G17" s="9">
-        <f>SUM(F17,F18)</f>
-        <v>1756</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1715.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3">
-        <v>200</v>
-      </c>
-      <c r="D18" s="3">
-        <f>SUM(C18,-C16)</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2.68</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="9"/>
-        <v>268</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="9">
-        <f>SUM(G2:G18)</f>
-        <v>8437.8700000000008</v>
-      </c>
-      <c r="H19" s="9">
-        <f>SUM(H2:H18)</f>
-        <v>8349.8700000000008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -85,7 +85,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +155,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,31 +515,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>44391</v>
+        <v>44487</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(C2,-C4)</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
-        <v>1488</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>496</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1756</v>
+        <v>496</v>
       </c>
       <c r="H2" s="8">
-        <v>1715.1</v>
+        <v>536.9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,14 +552,14 @@
       </c>
       <c r="D3" s="2">
         <f>SUM(C3,-C5)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
@@ -560,32 +569,32 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44298</v>
+      <c r="A4" s="10">
+        <v>44391</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(C4,-C6)</f>
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="E4" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>753.6</v>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>1488</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1008.6</v>
+        <v>1756</v>
       </c>
       <c r="H4" s="8">
-        <v>961.5</v>
+        <v>1715.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -594,18 +603,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
         <f>SUM(C5,-C7)</f>
         <v>100</v>
       </c>
       <c r="E5" s="7">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="1"/>
+        <v>268</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -616,19 +625,32 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44095</v>
+        <v>44298</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>140</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C8)</f>
+        <v>160</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>753.6</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>1008.6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>961.5</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -636,43 +658,85 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C9)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44095</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>140</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="8">
-        <f>SUM(G2:G3)</f>
-        <v>1756</v>
-      </c>
-      <c r="H8" s="8">
-        <f>SUM(H2:H3)</f>
-        <v>1715.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="5"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>3260.6</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>3213.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/5ee.xlsx
+++ b/sputnik/personal/ee/5ee.xlsx
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -132,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,6 +167,7 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -470,7 +478,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,14 +532,14 @@
         <v>700</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D7" si="0">SUM(C2,-C4)</f>
         <v>100</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
         <v>496</v>
       </c>
       <c r="G2" s="8">
@@ -551,14 +559,14 @@
         <v>200</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3,-C5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="7">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="8">
@@ -579,14 +587,14 @@
         <v>600</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C6)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F7" si="2">D4*E4</f>
         <v>1488</v>
       </c>
       <c r="G4" s="8">
@@ -606,14 +614,14 @@
         <v>200</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="7">
         <v>2.68</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="G5" s="8">
@@ -634,21 +642,21 @@
         <v>300</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C8)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>753.6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
         <v>1008.6</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="11">
         <v>961.5</v>
       </c>
     </row>
@@ -661,14 +669,14 @@
         <v>100</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C9)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E7" s="7">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G7" s="8">
@@ -736,7 +744,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <f>SUM(H10,-G10)</f>
+        <v>-47.099999999999909</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
